--- a/config_Release/fish3d_gun_bed_config.xlsx
+++ b/config_Release/fish3d_gun_bed_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="skill|技能" sheetId="8" r:id="rId3"/>
     <sheet name="lock|解锁" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>line|行号</t>
   </si>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>type|解锁类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -652,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,13 +1154,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1160,9 +1168,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
         <v>1</v>
       </c>
     </row>
